--- a/biology/Histoire de la zoologie et de la botanique/Adalbert_Geheeb/Adalbert_Geheeb.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Adalbert_Geheeb/Adalbert_Geheeb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adalbert Geheeb est un botaniste allemand, spécialiste des mousses, né le 21 mars 1842 à Geisa (Thuringe) et mort le 13 septembre 1909 à Königsfelden en Suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce fils de pharmacien étudie la pharmacie avant de s’occuper de l’officine familiale. Il consacre ses loisirs à l’étude de l’histoire naturelle et notamment des mousses du massif du Rhön dans le nord de la Bavière. Il fait paraître de nombreuses notices botaniques dans le Rhönführer. Il accompagne ses publications de remarquables illustrations qui font encore référence.
 En 1869, il entre à l'Académie allemande des sciences Leopoldina. La Société botanique de Londres l’élit comme membre correspondant. Il participe à la fondation, en 1876, du Rhönklub (de).
@@ -544,7 +558,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Adalbert Geheeb est le père de Paul Geheeb, pédagogue.
 </t>
@@ -575,7 +591,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Geheebia (vi), mousses de la famille des Pottiaceae, et l’espèce Brachythecium geheebii (sv) lui sont dédiés.
 </t>
@@ -606,7 +624,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1864 : Die Laubmoose des Cantons Aargau, mit besonderer Berücksichtigung der geognostischen Verhältnisse und der Phanorogamen-Flora. Aarau, Sauerländer.
 1886 : Ein Blick in die Flora des Dovrefjeld. Cassel.
